--- a/biology/Histoire de la zoologie et de la botanique/John_Berkenhout/John_Berkenhout.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_Berkenhout/John_Berkenhout.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">John Berkenhout est un médecin, un naturaliste et un écrivain britannique, né le 8 juillet 1726[1] à Yorkshire et mort le 3 avril 1791 à Besselsleigh, près d’Oxford.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">John Berkenhout est un médecin, un naturaliste et un écrivain britannique, né le 8 juillet 1726 à Yorkshire et mort le 3 avril 1791 à Besselsleigh, près d’Oxford.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’une marchand danois, John Berkenhout, installé dans le Yorkshire, et d’Anne née Kitchingman. Il fait ses études à la Leeds Grammar School. Il sert dans les armées prussiennes (où il le rang de capitaine) et britanniques avant de terminer ses études dans les universités d'Édimbourg et de Leyde. Il y obtient un titre de docteur en médecine en 1765. C’est durant son séjour à Édimbourg qu’il publie Clavis Anglicat Linguae. Il fait paraître plusieurs publications sur l’histoire naturelle, dont Outlines of the Natural History of Great Britain and Ireland (1769) et Synopsis of the Natural History of Great Britain and Ireland (1789). C’est dans cet ouvrage que Berkenhout, et non Carl von Linné (1707-1778) comme il est souvent affirmé, fait paraître la description du rat brun (Rattus norvegicus). Il sert comme émissaire britannique dans les colonies durant la révolution américaine.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pharmacopoeia medici, 1766.
 (la) Clavis anglica linguae botanicae, Édimbourg, 1ere édition, 1762
@@ -582,7 +598,9 @@
           <t>Note</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 ↑ Certaines sources donnent 1730.
@@ -614,7 +632,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Traduction de l'article de langue anglaise de Wikipédia (version du 7 février 2007).
 (en) The Revolutionary Diplomatic Correspondence</t>
